--- a/results/6900xt.xlsx
+++ b/results/6900xt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,33 +481,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASROCK - VGA CARDS Radeon RX 6900 XT Phantom Gaming D 16G OC  </t>
+          <t xml:space="preserve">PowerColor Red Devil AMD Radeon RX 6900 XT Ultimate Gaming Grafikkarte mit 16 GB GDDR6 Speicher, angetrieben von AMD RDNA 2, HDMI 2.1 One Size  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASROCK-CARDS-Radeon-Phantom-Gaming/dp/B08QYQH7QW/ref=sr_1_10?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-10</t>
+          <t>https://www.amazon.de/PowerColor-Ultimate-Grafikkarte-Speicher-angetrieben/dp/B09258PCFS/ref=sr_1_10?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>896</v>
+        <v>973</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>896</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>973</v>
+      </c>
+      <c r="G2" t="n">
+        <v>958</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -522,22 +520,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RX6900XT 16GB PowerColor Red Devil Ultimate  </t>
+          <t xml:space="preserve">Powercolor Red Devil AXRX 6900XTU 16GBD6-3DHE/OC Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Taille Unique  </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/RX6900XT-16GB-PowerColor-Devil-Ultimate/dp/B09258PCFS/ref=sr_1_37?keywords=6900xt&amp;qid=1671224991&amp;sr=8-37</t>
+          <t>https://www.amazon.fr/Powercolor-AXRX-6900XTU-16GBD6-3DHE-OC/dp/B09258PCFS/ref=sr_1_9?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-9</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>962</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
+        <v>974</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -561,24 +561,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor Red Devil AXRX 6900XTU 16GBD6-3DHE/OC Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Taille Unique  </t>
+          <t xml:space="preserve">GIGABYTE AORUS GV-R69XTAORUSX WB-16GD Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Noir  </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Powercolor-AXRX-6900XTU-16GBD6-3DHE-OC/dp/B09258PCFS/ref=sr_1_12?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-12</t>
+          <t>https://www.amazon.fr/GIGABYTE-GV-R69XTAORUSX-WB-16GD-Graphique-Radeon/dp/B096Y4VN4B/ref=sr_1_18?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-18</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -602,33 +602,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE AORUS GV-R69XTAORUSX WB-16GD Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Noir  </t>
+          <t xml:space="preserve">PowerColor Red Devil AMD Radeon RX 6900 XT Ultimate Gaming Card con Memoria GDDR6 de 16 GB, Alimentado por AMD RDNA 2, HDMI 2.1  </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/GIGABYTE-GV-R69XTAORUSX-WB-16GD-Graphique-Radeon/dp/B096Y4VN4B/ref=sr_1_32?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-32</t>
+          <t>https://www.amazon.es/PowerColor-Radeon-Ultimate-Memoria-Alimentado/dp/B09258PCFS/ref=sr_1_5?keywords=6900xt&amp;qid=1671321360&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>979</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>980</v>
+      </c>
+      <c r="G5" t="n">
+        <v>933</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -643,25 +641,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerColor Red Devil AMD Radeon RX 6900 XT Ultimate Gaming Card con Memoria GDDR6 de 16 GB, Alimentado por AMD RDNA 2, HDMI 2.1  </t>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6900 XT OC Edition - Tarjeta Gráfica (AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventiladores con Doble rodamiento de Bolas, Cubierta de Aluminio)  </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PowerColor-Radeon-Ultimate-Memoria-Alimentado/dp/B09258PCFS/ref=sr_1_4?keywords=6900xt&amp;qid=1671224988&amp;sr=8-4</t>
+          <t>https://www.amazon.es/ASUS-Gaming-TUF-RX6900XT-O16G-GAMING-Radeon-GDDR6/dp/B08BQX8VP3/ref=sr_1_18?keywords=6900xt&amp;qid=1671321360&amp;sr=8-18</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>980</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
+        <v>989</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="G6" t="n">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-RadeonTM-Gaming-Cooled-Triple/dp/B09C1WGFH4/ref=sr_1_13?keywords=6900xt&amp;qid=1671224991&amp;sr=8-13</t>
+          <t>https://www.amazon.it/SAPPHIRE-RadeonTM-Gaming-Cooled-Triple/dp/B09C1WGFH4/ref=sr_1_15?keywords=6900xt&amp;qid=1671321363&amp;sr=8-15</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -719,31 +719,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6900 XT OC Edition - Tarjeta Gráfica (AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventiladores con Doble rodamiento de Bolas, Cubierta de Aluminio)  </t>
+          <t xml:space="preserve">RX6900XT 16GB PowerColor Red Devil Ultimate  </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-Gaming-TUF-RX6900XT-O16G-GAMING-Radeon-GDDR6/dp/B08BQX8VP3/ref=sr_1_17?keywords=6900xt&amp;qid=1671224988&amp;sr=8-17</t>
+          <t>https://www.amazon.it/RX6900XT-16GB-PowerColor-Devil-Ultimate/dp/B09258PCFS/ref=sr_1_39?keywords=6900xt&amp;qid=1671321363&amp;sr=8-39</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>1005</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>995</v>
+      </c>
+      <c r="G8" t="n">
+        <v>967</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -758,25 +756,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASROCK Radeon RX 6900 XT Phantom Gaming D 16G OC - Scheda Video VGA  </t>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6900 XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, Telaio in Alluminio, Nero  </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASROCK-CARDS-Radeon-Phantom-Gaming/dp/B08QYQH7QW/ref=sr_1_31?keywords=6900xt&amp;qid=1671224991&amp;sr=8-31</t>
+          <t>https://www.amazon.it/Asus-RX6900XT-Gaming-GDDR6-1xHDMI/dp/B08BQX8VP3/ref=sr_1_14?keywords=6900xt&amp;qid=1671321363&amp;sr=8-14</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>1011</v>
-      </c>
-      <c r="G9" t="n">
-        <v>845</v>
+        <v>1000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -795,31 +795,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX 6900XT MERC319 Black Gaming 16GB DDR6 Triple-Fan 256bit  </t>
+          <t xml:space="preserve">MSI RX 6900 XT Gaming Z Trio 16G Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Noir/Argent  </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-6900XT-MERC319-Gaming-Triple-Fan/dp/B08SVZNFWR/ref=sr_1_3?keywords=6900xt&amp;qid=1671224988&amp;sr=8-3</t>
+          <t>https://www.amazon.fr/MSI-RX-6900-16G-Radeon/dp/B095C9SXP1/ref=sr_1_3?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="G10" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -834,27 +834,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">RX 6900XT 16GB XFX compatible BLACK Gaming  </t>
+          <t xml:space="preserve">ASROCK Radeon RX 6900 XT Phantom Gaming D 16G OC - Scheda Video VGA  </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Scheda-6900XT-XFX-gaming-colore/dp/B08SVZNFWR/ref=sr_1_1?keywords=6900xt&amp;qid=1671224991&amp;sr=8-1</t>
+          <t>https://www.amazon.it/ASROCK-CARDS-Radeon-Phantom-Gaming/dp/B08QYQH7QW/ref=sr_1_34?keywords=6900xt&amp;qid=1671321363&amp;sr=8-34</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1017</v>
+        <v>987</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>1027</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1011</v>
+      </c>
+      <c r="G11" t="n">
+        <v>845</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -873,31 +871,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI RX6900 XT Gaming X Trio 16G Carte Graphique  </t>
+          <t xml:space="preserve">XFX RX 6900XT MERC319 Black Gaming 16GB DDR6 Triple-Fan 256bit  </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-RX6900-Gaming-Trio-16G/dp/B08VH7DWP2/ref=sr_1_18?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-18</t>
+          <t>https://www.amazon.es/XFX-6900XT-MERC319-Gaming-Triple-Fan/dp/B08SVZNFWR/ref=sr_1_omk_2?keywords=6900xt&amp;qid=1671321360&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="G12" t="n">
-        <v>1025</v>
+        <v>985</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -912,31 +910,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE TECHNOLOGY Nitro+ Radeon RX 6900 XT SE CTLR  </t>
+          <t xml:space="preserve">RX 6900XT 16GB XFX compatible BLACK Gaming  </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/SAPPHIRE-TECHNOLOGY-Nitro-Radeon-6900/dp/B08Y81WFF7/ref=sr_1_14?keywords=6900xt&amp;qid=1671224988&amp;sr=8-14</t>
+          <t>https://www.amazon.it/Scheda-6900XT-XFX-gaming-colore/dp/B08SVZNFWR/ref=sr_1_2?keywords=6900xt&amp;qid=1671321363&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>1034</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1017</v>
+      </c>
+      <c r="G13" t="n">
+        <v>938</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -951,31 +947,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Nitro+ AMD Radeon RX 6900 XT Se Gaming OC 16 Go GDDR6 HDMI/Triple DP Carte Graphique 11308-03-20G  </t>
+          <t xml:space="preserve">SAPPHIRE TECHNOLOGY Nitro+ Radeon RX 6900 XT SE CTLR  </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-Nitro-RadeonTM-Gaming-Triple/dp/B08Y81WFF7/ref=sr_1_3?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-3</t>
+          <t>https://www.amazon.es/SAPPHIRE-TECHNOLOGY-Nitro-Radeon-6900/dp/B08Y81WFF7/ref=sr_1_4?keywords=6900xt&amp;qid=1671321360&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1036</v>
-      </c>
-      <c r="G14" t="n">
         <v>1022</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -990,31 +988,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toxic Radeon RX 6900 XT Gaming OC 16GB GDDR6 Extreme HDMI 3XDP  </t>
+          <t xml:space="preserve">Sapphire Nitro+ AMD Radeon RX 6900 XT Se Gaming OC 16 Go GDDR6 HDMI/Triple DP Carte Graphique 11308-03-20G  </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Toxic-Radeon-Gaming-GDDR6-Extreme/dp/B091CRNMDJ/ref=sr_1_2?keywords=6900xt&amp;qid=1671224988&amp;sr=8-2</t>
+          <t>https://www.amazon.fr/SAPPHIRE-Nitro-RadeonTM-Gaming-Triple/dp/B08Y81WFF7/ref=sr_1_2?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G15" t="n">
         <v>1022</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1029,31 +1027,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">VGA SAPPHIRE NITRO + R RX 6900 XT SE G OC 16G  </t>
+          <t xml:space="preserve">Toxic Radeon RX 6900 XT Gaming OC 16GB GDDR6 Extreme HDMI 3XDP  </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-11308-03-20G-NITRO-RADEON-GAMING/dp/B08Y81WFF7/ref=sr_1_30?keywords=6900xt&amp;qid=1671224991&amp;sr=8-30</t>
+          <t>https://www.amazon.es/Toxic-Radeon-Gaming-GDDR6-Extreme/dp/B091CRNMDJ/ref=sr_1_3?keywords=6900xt&amp;qid=1671321360&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1013</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29</v>
+        <v>1038</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo el </t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>1042</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1038</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1022</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1068,29 +1066,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asrock Phantom Gaming RX 6900 XT 16G OC AMD Radeon RX 6900 XT 16 GB GDDR6  </t>
+          <t xml:space="preserve">VGA SAPPHIRE NITRO + R RX 6900 XT SE G OC 16G  </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Asrock-RX-6900-XT-16G/dp/B08QYQH7QW/ref=sr_1_45?keywords=6900xt&amp;qid=1671224988&amp;sr=8-45</t>
+          <t>https://www.amazon.it/SAPPHIRE-11308-03-20G-NITRO-RADEON-GAMING/dp/B08Y81WFF7/ref=sr_1_33?keywords=6900xt&amp;qid=1671321363&amp;sr=8-33</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>1048</v>
-      </c>
-      <c r="G17" t="n">
-        <v>934</v>
+        <v>1042</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1105,16 +1105,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6900 XT Master Carte Graphique 16 Go  </t>
+          <t xml:space="preserve">ASROCK - VGA CARDS Radeon RX 6900 XT Phantom Gaming D 16G OC  </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Gigabyte-AORUS-Radeon-Master-Graphique/dp/B08WBYGJ83/ref=sr_1_8?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-8</t>
+          <t>https://www.amazon.fr/ASROCK-CARDS-Radeon-Phantom-Gaming/dp/B08QYQH7QW/ref=sr_1_13?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-13</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1122,12 +1122,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1048</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1049</v>
+      </c>
+      <c r="G18" t="n">
+        <v>896</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1146,31 +1144,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE TOXIC AMD RADEON RX 6900 XT EXTREME EDITION 16GB GDDR6  </t>
+          <t xml:space="preserve">MSI RX6900 XT Gaming X Trio 16G Carte Graphique  </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Sapphire-TOSSICO-RADEON-GAMING-EXTREME/dp/B091CRNMDJ/ref=sr_1_16?keywords=6900xt&amp;qid=1671224991&amp;sr=8-16</t>
+          <t>https://www.amazon.fr/MSI-RX6900-Gaming-Trio-16G/dp/B08VH7DWP2/ref=sr_1_11?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-11</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1051</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12</v>
+        <v>1056</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>1063</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1056</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1049</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1185,31 +1183,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI VGA RX 6900XT Gaming X Trio 16GB V395-007R  </t>
+          <t xml:space="preserve">MSI RX6900 XT Gaming X Trio 16G  </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/MSI-RX6900-Gaming-Trio-16G/dp/B08VH7DWP2/ref=sr_1_17?keywords=6900xt&amp;qid=1671224991&amp;sr=8-17</t>
+          <t>https://www.amazon.de/MSI-RX6900-Gaming-Trio-16G/dp/B08VH7DWP2/ref=sr_1_3?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>1062</v>
       </c>
-      <c r="E20" t="n">
-        <v>9</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung </t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>1071</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1062</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1053</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,20 +1227,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/MSI-Gaming-Tarjeta-gr%C3%A1fica-Radeon/dp/B08VH7DWP2/ref=sr_1_46?keywords=6900xt&amp;qid=1671224988&amp;sr=8-46</t>
+          <t>https://www.amazon.es/MSI-Gaming-Tarjeta-gr%C3%A1fica-Radeon/dp/B08VH7DWP2/ref=sr_1_48?keywords=6900xt&amp;qid=1671321360&amp;sr=8-48</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1125</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
+        <v>1062</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>1126</v>
-      </c>
-      <c r="G21" t="n">
         <v>1062</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1261,25 +1263,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6900 XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, Telaio in Alluminio, Nero  </t>
+          <t xml:space="preserve">SAPPHIRE TOXIC AMD RADEON RX 6900 XT EXTREME EDITION 16GB GDDR6  </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Asus-RX6900XT-Gaming-GDDR6-1xHDMI/dp/B08BQX8VP3/ref=sr_1_29?keywords=6900xt&amp;qid=1671224991&amp;sr=8-29</t>
+          <t>https://www.amazon.it/Sapphire-TOSSICO-RADEON-GAMING-EXTREME/dp/B091CRNMDJ/ref=sr_1_18?keywords=6900xt&amp;qid=1671321363&amp;sr=8-18</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1112</v>
+        <v>1051</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>1138</v>
-      </c>
-      <c r="G22" t="n">
-        <v>989</v>
+        <v>1063</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1298,25 +1302,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">VGA POWERCOLOR RX 6900XT RED DEVIL 16GB DDR6 TRIPLE-COOLER RETAIL  </t>
+          <t xml:space="preserve">MSI VGA RX 6900XT Gaming X Trio 16GB V395-007R  </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/PowerColor-RadeonTM-tecnologia-Raytracing-Infinity/dp/B08Q2R71CS/ref=sr_1_5?keywords=6900xt&amp;qid=1671224991&amp;sr=8-5</t>
+          <t>https://www.amazon.it/MSI-RX6900-Gaming-Trio-16G/dp/B08VH7DWP2/ref=sr_1_19?keywords=6900xt&amp;qid=1671321363&amp;sr=8-19</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1135</v>
+        <v>1062</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>1145</v>
-      </c>
-      <c r="G23" t="n">
-        <v>960</v>
+        <v>1071</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1335,31 +1341,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASRock Radeon RX 6900 XT OC Formula AMD 16 Go GDDR6 Carte Graphique  </t>
+          <t xml:space="preserve">Nitro+ RADEON RX 6900 XT SE Gaming OC 16GB GDDR6 HDMI 3XDP  </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASRock-Radeon-Formula-GDDR6-Graphique/dp/B0957GBK9W/ref=sr_1_5?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-5</t>
+          <t>https://www.amazon.de/Nitro-Radeon-6900-Gaming-GDDR6/dp/B08Y81WFF7/ref=sr_1_1?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1145</v>
+        <v>1075</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1145</v>
+        <v>1075</v>
       </c>
       <c r="G24" t="n">
-        <v>1059</v>
+        <v>1022</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1374,31 +1380,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS ROG -STRIX-LC-RX6900XT-O16G-GAMING AMD Radeo 16 Go GDDR6 Noir, Gris One Size  </t>
+          <t xml:space="preserve">Asrock Phantom Gaming RX 6900 XT 16G OC AMD Radeon RX 6900 XT 16 GB GDDR6  </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ROG-STRIX-LC-RX6900XT-O16G-GMNG-GDDR6-HDMI-DP-90YV0GF0-M0NM00/dp/B08CVBC5MG/ref=sr_1_28?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-28</t>
+          <t>https://www.amazon.es/Asrock-RX-6900-XT-16G/dp/B08QYQH7QW/ref=sr_1_45?keywords=6900xt&amp;qid=1671321360&amp;sr=8-45</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1159</v>
+        <v>1096</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1159</v>
+        <v>1096</v>
       </c>
       <c r="G25" t="n">
-        <v>1143</v>
+        <v>888</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1413,31 +1419,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS AMD Radeon RX 6900 XT, ROG-STRIX-LC-RX6900XT-O16G-GAMING con raffreddamento a liquido, 16GB GDDR6, HDMI, PSU 850 W  </t>
+          <t xml:space="preserve">ASUS ROG Strix LC AMD Radeon RX 6900 XT OC Edition - Tarjeta Gráfica Gaming, AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Placa Fría, Radiador de 240 mm, Tubos de 600 mm  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ROG-STRIX-LC-RX6900XT-O16G-GMNG-16GB-GDDR6-HDMI-90YV0GF0-M0NM00/dp/B08CVBC5MG/ref=sr_1_7?keywords=6900xt&amp;qid=1671224991&amp;sr=8-7</t>
+          <t>https://www.amazon.es/ASUS-STRIX-LC-RX6900XT-O16G-GAMING-Radeon-6900-GDDR6/dp/B08CVBC5MG/ref=sr_1_44?keywords=6900xt&amp;qid=1671321360&amp;sr=8-44</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1162</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6</v>
+        <v>1109</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo el </t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>1168</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1109</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1090</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1452,22 +1458,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asrock Radeon RX 6900 XT  </t>
+          <t xml:space="preserve">ASUS ROG Strix LC AMD Radeon RX 6900 XT 16G OC Edition Gaming Grafikkarte mit Wasserkühlung (PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, 240mm Radiator, ROG-STRIX-LC-RX6900XT-O16G-GAMING)  </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Asrock-RX-6900XT-OC-Tripple-Fan/dp/B0957GBK9W/ref=sr_1_14?keywords=6900xt&amp;qid=1671224991&amp;sr=8-14</t>
+          <t>https://www.amazon.de/ROG-STRIX-LC-RX6900XT-O16G-GMNG-16GB-GDDR6-HDMI-DP/dp/B08CVBC5MG/ref=sr_1_6?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-6</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1172</v>
-      </c>
-      <c r="E27" t="n">
-        <v>11</v>
+        <v>1142</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung </t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>1183</v>
+        <v>1142</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1476,7 +1484,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1491,31 +1499,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Radeon RX 6900 XT GAMING Z TRIO 16G Scheda video gaming  </t>
+          <t xml:space="preserve">ASRock Radeon RX 6900 XT OC Formula AMD 16 Go GDDR6 Carte Graphique  </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/MSI-Radeon-6900-GAMING-TRIO/dp/B095C9SXP1/ref=sr_1_42?keywords=6900xt&amp;qid=1671224991&amp;sr=8-42</t>
+          <t>https://www.amazon.fr/ASRock-Radeon-Formula-GDDR6-Graphique/dp/B0957GBK9W/ref=sr_1_6?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-6</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1190</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10</v>
+        <v>1143</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1143</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1059</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1530,27 +1538,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE Aorus Radeon RX 6900 XT Master 16G Rev 2.0 (16 Go GDDR6/PCI Express 4.0/2335 MHz/16000 MHz) Carte Graphique Noir  </t>
+          <t xml:space="preserve">ASUS ROG -STRIX-LC-RX6900XT-O16G-GAMING AMD Radeo 16 Go GDDR6 Noir, Gris One Size  </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/GIGABYTE-Radeon-Master-Express-Graphique/dp/B09NQDW5VH/ref=sr_1_7?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-7</t>
+          <t>https://www.amazon.fr/ROG-STRIX-LC-RX6900XT-O16G-GMNG-GDDR6-HDMI-DP-90YV0GF0-M0NM00/dp/B08CVBC5MG/ref=sr_1_28?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-28</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1229</v>
+        <v>1143</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1229</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1223</v>
+        <v>1143</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1569,27 +1579,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte GV-R69XTAORUS M-16GD, Aorus Radeon RX 6900 XT Master 16G Rev 2.0 (16GB GDDR6/PCI Express 4.0/2335MHz/16000MHz)  </t>
+          <t xml:space="preserve">VGA POWERCOLOR RX 6900XT RED DEVIL 16GB DDR6 TRIPLE-COOLER RETAIL  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Gigabyte-GV-R69XTAORUS-M-16GD-Express-16000MHz/dp/B09NQDW5VH/ref=sr_1_20?keywords=6900xt&amp;qid=1671224991&amp;sr=8-20</t>
+          <t>https://www.amazon.it/PowerColor-RadeonTM-tecnologia-Raytracing-Infinity/dp/B08Q2R71CS/ref=sr_1_5?keywords=6900xt&amp;qid=1671321363&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1231</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consegna a 8€ </t>
-        </is>
+        <v>1135</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>1231</v>
+        <v>1145</v>
       </c>
       <c r="G30" t="n">
-        <v>1218</v>
+        <v>930</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1608,29 +1616,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerColor Red Devil AMD Radeon™ RX 6900 XT Tarjeta gráfica para Juegos con Memoria GDDR6 de 16 GB, con tecnología AMD RDNA™ 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
+          <t xml:space="preserve">ASUS AMD Radeon RX 6900 XT, ROG-STRIX-LC-RX6900XT-O16G-GAMING con raffreddamento a liquido, 16GB GDDR6, HDMI, PSU 850 W  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PowerColor-RadeonTM-tecnolog%C3%ADa-Raytracing-Infinity/dp/B08Q2R71CS/ref=sr_1_24?keywords=6900xt&amp;qid=1671224988&amp;sr=8-24</t>
+          <t>https://www.amazon.it/ROG-STRIX-LC-RX6900XT-O16G-GMNG-16GB-GDDR6-HDMI-90YV0GF0-M0NM00/dp/B08CVBC5MG/ref=sr_1_7?keywords=6900xt&amp;qid=1671321363&amp;sr=8-7</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1221</v>
+        <v>1162</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>1232</v>
-      </c>
-      <c r="G31" t="n">
-        <v>965</v>
+        <v>1168</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1645,24 +1655,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX 16GB RX 6900XT Zero EKWB Limited  </t>
+          <t xml:space="preserve">Asrock Radeon RX 6900 XT  </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/XFX-6900XT-SPEEDSTER-Waterblock-Limited/dp/B09GZSPX5Y/ref=sr_1_6?keywords=6900xt&amp;qid=1671224991&amp;sr=8-6</t>
+          <t>https://www.amazon.it/Asrock-RX-6900XT-OC-Tripple-Fan/dp/B0957GBK9W/ref=sr_1_16?keywords=6900xt&amp;qid=1671321363&amp;sr=8-16</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1242</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consegna GRATUITA </t>
-        </is>
+        <v>1172</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>1242</v>
+        <v>1183</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1686,29 +1694,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6900 XT TOP Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, Telaio in Alluminio, Nero  </t>
+          <t xml:space="preserve">XFX Speedster MERC319 Radeon RX 6900XT Black Tarjeta gráfica para Juegos con 16GB GDDR6, AMD RDNA ™ 2 (RX-69XTATBD9)  </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASUS-Grafica-DisplayPort-Cuscinetti-Alluminio/dp/B09QCKXY6Y/ref=sr_1_27?keywords=6900xt&amp;qid=1671224991&amp;sr=8-27</t>
+          <t>https://www.amazon.es/Speedster-MERC319-Tarjeta-gr%C3%A1fica-RX-69XTATBD9/dp/B09BZP8KZG/ref=sr_1_1?keywords=6900xt&amp;qid=1671321360&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1247</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9</v>
+        <v>1210</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F33" t="n">
-        <v>1256</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1166</v>
+        <v>1210</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1723,27 +1735,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI RX 6900 XT Gaming Z Trio 16G Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Noir/Argent  </t>
+          <t xml:space="preserve">XFX Speedster MERC319 Radeon RX 6900XT Black Gaming Carte Graphique avec 16GB GDDR6, AMD RDNA™ 2 (RX-69XTATBD9)  </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-RX-6900-16G-Radeon/dp/B095C9SXP1/ref=sr_1_4?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-4</t>
+          <t>https://www.amazon.fr/Speedster-MERC319-Radeon-Graphique-RX-69XTATBD9/dp/B09BZP8KZG/ref=sr_1_5?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1262</v>
+        <v>1210</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1262</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1019</v>
+        <v>1210</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1762,33 +1776,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire 11308-01-20G Nitro+ AMD Radeon RX 6900 XT PCIe 4.0 Carte Graphique de Jeu avec GDDR6 16 Go  </t>
+          <t xml:space="preserve">MSI Radeon RX 6900 XT GAMING Z TRIO 16G Scheda video gaming  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Sapphire-Radeon-Graphique-Gaming-11308-01-20G/dp/B08QQFW9YS/ref=sr_1_44?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-44</t>
+          <t>https://www.amazon.it/MSI-Radeon-6900-GAMING-TRIO/dp/B095C9SXP1/ref=sr_1_44?keywords=6900xt&amp;qid=1671321363&amp;sr=8-44</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1279</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>1204</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>1279</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1214</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1204</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1803,33 +1813,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire 11308-01-20G Nitro+ AMD Radeon RX 6900 XT PCIe 4.0 Scheda grafica da gioco con 16 GB GDDR6  </t>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6900 XT Master Carte Graphique 16 Go  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Sapphire-11308-01-20G-NITRO-Radeon-6900/dp/B08QQFW9YS/ref=sr_1_33?keywords=6900xt&amp;qid=1671224991&amp;sr=8-33</t>
+          <t>https://www.amazon.fr/Gigabyte-AORUS-Radeon-Master-Graphique/dp/B08WBYGJ83/ref=sr_1_21?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-21</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1279</v>
+        <v>1220</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consegna GRATUITA </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1279</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1220</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1048</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1844,31 +1852,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6900 XT MASTER 16GB Scheda grafica GV-R69XTAORUS M-16GD  </t>
+          <t xml:space="preserve">PowerColor Red Devil AMD Radeon™ RX 6900 XT Tarjeta gráfica para Juegos con Memoria GDDR6 de 16 GB, con tecnología AMD RDNA™ 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Gigabyte-AORUS-Radeon-6900-MASTER/dp/B08WBYGJ83/ref=sr_1_26?keywords=6900xt&amp;qid=1671224991&amp;sr=8-26</t>
+          <t>https://www.amazon.es/PowerColor-RadeonTM-tecnolog%C3%ADa-Raytracing-Infinity/dp/B08Q2R71CS/ref=sr_1_25?keywords=6900xt&amp;qid=1671321360&amp;sr=8-25</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1325</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12</v>
+        <v>1221</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F37" t="n">
-        <v>1337</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1221</v>
+      </c>
+      <c r="G37" t="n">
+        <v>965</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1883,31 +1891,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS ROG -STRIX-LC-RX6900XT-T16G-GAMING AMD Radeon RX 6900 XT 16 Go GDDR6 Carte Graphique Noir/Argent  </t>
+          <t xml:space="preserve">Gigabyte GV-R69XTAORUS M-16GD, Aorus Radeon RX 6900 XT Master 16G Rev 2.0 (16GB GDDR6/PCI Express 4.0/2335MHz/16000MHz)  </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASUS-STRIX-LC-RX6900XT-T16G-GAMING-Radeon-Graphique-Argent/dp/B095SYYC8F/ref=sr_1_34?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-34</t>
+          <t>https://www.amazon.it/Gigabyte-GV-R69XTAORUS-M-16GD-Express-16000MHz/dp/B09NQDW5VH/ref=sr_1_23?keywords=6900xt&amp;qid=1671321363&amp;sr=8-23</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1349</v>
+        <v>1231</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Consegna a 8€ </t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1349</v>
+        <v>1231</v>
       </c>
       <c r="G38" t="n">
-        <v>1086</v>
+        <v>1218</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1922,31 +1930,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte GV-R69XTAORUS M-16GD Tarjeta gráfica AMD Radeon RX 6900 XT 16 GB GDDR6  </t>
+          <t xml:space="preserve">GIGABYTE Aorus Radeon RX 6900 XT Master 16G Rev 2.0 (16 Go GDDR6/PCI Express 4.0/2335 MHz/16000 MHz) Carte Graphique Noir  </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-Master-Express/dp/B09NQDW5VH/ref=sr_1_25?keywords=6900xt&amp;qid=1671224988&amp;sr=8-25</t>
+          <t>https://www.amazon.fr/GIGABYTE-Radeon-Master-Express-Graphique/dp/B09NQDW5VH/ref=sr_1_8?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-8</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1359</v>
+        <v>1232</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1359</v>
+        <v>1232</v>
       </c>
       <c r="G39" t="n">
-        <v>1337</v>
+        <v>1223</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1961,29 +1969,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asrock RX 6900XT OCF 16GB DDR6 DREI-Lüfter 256b  </t>
+          <t xml:space="preserve">Pine Technology XFX Speedster MERC319 Radeon RX 6900XT Black Gaming Scheda Grafica con 16GB GDDR6, AMD RDNA™ 2 (RX-69XTATBD9)  </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Asrock-6900XT-16GB-DDR6-DREI-L%C3%BCfter/dp/B0957GBK9W/ref=sr_1_9?keywords=6900xt&amp;qid=1671224988&amp;sr=8-9</t>
+          <t>https://www.amazon.it/Pine-Technology-Speedster-MERC319-RX-69XTATBD9/dp/B09BZP8KZG/ref=sr_1_6?keywords=6900xt&amp;qid=1671321363&amp;sr=8-6</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1352</v>
+        <v>1210</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F40" t="n">
-        <v>1368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1025</v>
+        <v>1235</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1998,31 +2008,33 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX-69XTACSD9 Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Noir/Acier Inoxydable  </t>
+          <t xml:space="preserve">XFX 16GB RX 6900XT Zero EKWB Limited  </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-RX-69XTACSD9-Graphique-Radeon-Inoxydable/dp/B097N5N3YB/ref=sr_1_1?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-1</t>
+          <t>https://www.amazon.it/XFX-6900XT-SPEEDSTER-Waterblock-Limited/dp/B09GZSPX5Y/ref=sr_1_8?keywords=6900xt&amp;qid=1671321363&amp;sr=8-8</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1407</v>
+        <v>1242</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Consegna GRATUITA </t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1407</v>
-      </c>
-      <c r="G41" t="n">
-        <v>941</v>
+        <v>1242</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2037,31 +2049,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor Red Devil RX 6900XT - Carte Graphique à 3 Ventilateurs - 16 Go  </t>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6900 XT TOP Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, Telaio in Alluminio, Nero  </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/PowerColor-RadeonTM-Graphique-aliment%C3%A9e-Raytracing/dp/B08Q2R71CS/ref=sr_1_21?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-21</t>
+          <t>https://www.amazon.it/ASUS-Grafica-DisplayPort-Cuscinetti-Alluminio/dp/B09QCKXY6Y/ref=sr_1_31?keywords=6900xt&amp;qid=1671321363&amp;sr=8-31</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1419</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>1247</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>1419</v>
+        <v>1256</v>
       </c>
       <c r="G42" t="n">
-        <v>988</v>
+        <v>1166</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2076,22 +2086,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Technology Radeon RX 6900 XT Gaming OC 16G AMD 16 GB GDDR6, Multicolor  </t>
+          <t xml:space="preserve">Sapphire 11308-01-20G Nitro+ AMD Radeon RX 6900 XT PCIe 4.0 Scheda grafica da gioco con 16 GB GDDR6  </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-Gaming-Multicolor/dp/B08RWZLDPN/ref=sr_1_19?keywords=6900xt&amp;qid=1671224988&amp;sr=8-19</t>
+          <t>https://www.amazon.it/Sapphire-11308-01-20G-NITRO-Radeon-6900/dp/B08QQFW9YS/ref=sr_1_38?keywords=6900xt&amp;qid=1671321363&amp;sr=8-38</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1395</v>
-      </c>
-      <c r="E43" t="n">
-        <v>29</v>
+        <v>1279</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consegna GRATUITA </t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>1424</v>
+        <v>1279</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2100,7 +2112,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2115,16 +2127,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE Toxic AMD Radeon™ RX 6900 XT Gaming OC 16GB GDDR6 Liquid Cooled HDMI / Triple DP  </t>
+          <t xml:space="preserve">XFX Speedster SWFT 319 AMD Radeon™ RX 6900 XT Core Gaming Graphics Card with 16GB GDDR6, AMD RDNA™ 2  </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-RadeonTM-Gaming-Liquid-Cooled/dp/B09L3M38RD/ref=sr_1_6?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-6</t>
+          <t>https://www.amazon.fr/XFX-Speedster-RadeonTM-Gaming-Graphics/dp/B09M38TVL2/ref=sr_1_1?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1483</v>
+        <v>1280</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2132,7 +2144,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1483</v>
+        <v>1280</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2156,33 +2168,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire 11308-13-20G Toxic AMD Radeon RX 6900 XT Carte Graphique de Jeu PCIe 4.0 refroidie par Liquide avec GDDR6 16 Go  </t>
+          <t xml:space="preserve">Gigabyte Radeon RX 6900 XT Master 16G Rev 2.0 (16GB GDDR6/PCI Express 4.0/2335MHz/16000MHz) GV-R69XTAORUS M-16GD Schwarz  </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Sapphire-11308-13-20G-Graphique-refroidie-Liquide/dp/B09QH5MGQ8/ref=sr_1_47?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-47</t>
+          <t>https://www.amazon.de/Gigabyte-Express-16000MHz-GV-R69XTAORUS-M-16GD/dp/B09NQDW5VH/ref=sr_1_9?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-9</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1483</v>
+        <v>1299</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1483</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1299</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1299</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2197,24 +2207,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE 11308-13-20G, TOXIC RADEON RX 6900 XT GAMING OC 16 GB GDDR6 HDMI 3 DP LITE  </t>
+          <t xml:space="preserve">XFX RX 6900XT SWFT319 CORE GAMING 16GB DDR6 TRIPLE-FAN 25  </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-11308-13-20G-TOXIC-RADEON-GAMING/dp/B09L3M38RD/ref=sr_1_15?keywords=6900xt&amp;qid=1671224991&amp;sr=8-15</t>
+          <t>https://www.amazon.it/XFX-Speedster-RadeonTM-Scheda-grafica/dp/B09M38TVL2/ref=sr_1_1?keywords=6900xt&amp;qid=1671321363&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1483</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consegna GRATUITA </t>
-        </is>
+        <v>1280</v>
+      </c>
+      <c r="E46" t="n">
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>1483</v>
+        <v>1304</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2238,24 +2246,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire 11308-13-20G Tossico AMD Radeon RX 6900 XT Scheda grafica da gioco PCIe 4.0 raffreddata a liquido con 16GB GDDR6  </t>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6900 XT MASTER 16GB Scheda grafica GV-R69XTAORUS M-16GD  </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Sapphire-11308-13-20G-Tossico-grafica-raffreddata/dp/B09QH5MGQ8/ref=sr_1_46?keywords=6900xt&amp;qid=1671224991&amp;sr=8-46</t>
+          <t>https://www.amazon.it/Gigabyte-AORUS-Radeon-6900-MASTER/dp/B08WBYGJ83/ref=sr_1_29?keywords=6900xt&amp;qid=1671321363&amp;sr=8-29</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1483</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consegna GRATUITA </t>
-        </is>
+        <v>1298</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>1483</v>
+        <v>1323</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2279,25 +2285,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS ROG Strix LC AMD Radeon RX 6900 XT Top Edition - Tarjeta gráfica Gaming (AMD RDNA 2,  PCIe 4.0, 16 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Placa fría, radiador de 240 mm, Tubos de 600 mm)  </t>
+          <t xml:space="preserve">Asrock RX 6900XT OCF 16GB DDR6 DREI-Lüfter 256b  </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Strix-Radeon-6900/dp/B095SYYC8F/ref=sr_1_29?keywords=6900xt&amp;qid=1671224988&amp;sr=8-29</t>
+          <t>https://www.amazon.es/Asrock-6900XT-16GB-DDR6-DREI-L%C3%BCfter/dp/B0957GBK9W/ref=sr_1_11?keywords=6900xt&amp;qid=1671321360&amp;sr=8-11</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1535</v>
-      </c>
-      <c r="E48" t="n">
-        <v>38</v>
+        <v>1344</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F48" t="n">
-        <v>1573</v>
+        <v>1344</v>
       </c>
       <c r="G48" t="n">
-        <v>969</v>
+        <v>1025</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2316,27 +2324,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX 6900XT MERC319 Gaming Black Limited Edition - Memoria RAM DDR6 de 16 GB  </t>
+          <t xml:space="preserve">Gigabyte GV-R69XTAORUS M-16GD Tarjeta gráfica AMD Radeon RX 6900 XT 16 GB GDDR6  </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-6900XT-MERC319-Gaming-Limited/dp/B097N5N3YB/ref=sr_1_10?keywords=6900xt&amp;qid=1671224988&amp;sr=8-10</t>
+          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-Master-Express/dp/B09NQDW5VH/ref=sr_1_27?keywords=6900xt&amp;qid=1671321360&amp;sr=8-27</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1606</v>
+        <v>1359</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1606</v>
+        <v>1359</v>
       </c>
       <c r="G49" t="n">
-        <v>1309</v>
+        <v>1337</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2360,19 +2368,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Gigabyte-Technology-GV-R69XTAORUSX-WB-16GD-Tarjeta/dp/B096Y4VN4B/ref=sr_1_15?keywords=6900xt&amp;qid=1671224988&amp;sr=8-15</t>
+          <t>https://www.amazon.es/Gigabyte-Technology-GV-R69XTAORUSX-WB-16GD-Tarjeta/dp/B096Y4VN4B/ref=sr_1_17?keywords=6900xt&amp;qid=1671321360&amp;sr=8-17</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1761</v>
+        <v>1376</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1761</v>
+        <v>1376</v>
       </c>
       <c r="G50" t="n">
         <v>780</v>
@@ -2394,29 +2402,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS ROG Strix LC AMD Radeon RX 6900XT Top Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Raffreddamento a Liquido, Radiatore 240mm, Tubi da 600mm, RGB, Nero  </t>
+          <t xml:space="preserve">Gigabyte Technology Radeon RX 6900 XT Gaming OC 16G AMD 16 GB GDDR6, Multicolor  </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/radiatore-memoria-raffreddamento-liquido-Rog-Strix-LC-RX6900XT-T16G-Gaming/dp/B095SYYC8F/ref=sr_1_18?keywords=6900xt&amp;qid=1671224991&amp;sr=8-18</t>
+          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-Gaming-Multicolor/dp/B08RWZLDPN/ref=sr_1_22?keywords=6900xt&amp;qid=1671321360&amp;sr=8-22</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1827</v>
-      </c>
-      <c r="E51" t="n">
-        <v>14</v>
+        <v>1395</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F51" t="n">
-        <v>1841</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1001</v>
+        <v>1395</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2431,31 +2443,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pine Technology XFX Speedster MERC319 Radeon RX 6900XT Black Gaming Scheda Grafica con 16GB GDDR6, AMD RDNA™ 2 (RX-69XTATBD9)  </t>
+          <t xml:space="preserve">XFX RX-69XTACSD9 Carte Graphique AMD Radeon RX 6900 XT 16 Go GDDR6 Noir/Acier Inoxydable  </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Pine-Technology-Speedster-MERC319-RX-69XTATBD9/dp/B09BZP8KZG/ref=sr_1_4?keywords=6900xt&amp;qid=1671224991&amp;sr=8-4</t>
+          <t>https://www.amazon.fr/XFX-RX-69XTACSD9-Graphique-Radeon-Inoxydable/dp/B097N5N3YB/ref=sr_1_4?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1845</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10</v>
+        <v>1407</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F52" t="n">
-        <v>1855</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1407</v>
+      </c>
+      <c r="G52" t="n">
+        <v>941</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2470,31 +2482,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Toxic Radeon RX 6900 XT Gaming OC 16GB GDDR6 HDMI 3 DP Lite, 11308-13-20G  </t>
+          <t xml:space="preserve">ASUS ROG -STRIX-LC-RX6900XT-T16G-GAMING AMD Radeon RX 6900 XT 16 Go GDDR6 Carte Graphique Noir/Argent  </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/T%C3%93XIC-Radeon-6900-Gaming-GDDR6/dp/B09L3M38RD/ref=sr_1_39?keywords=6900xt&amp;qid=1671224988&amp;sr=8-39</t>
+          <t>https://www.amazon.fr/ASUS-STRIX-LC-RX6900XT-T16G-GAMING-Radeon-Graphique-Argent/dp/B095SYYC8F/ref=sr_1_30?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-30</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1894</v>
+        <v>1413</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1894</v>
+        <v>1413</v>
       </c>
       <c r="G53" t="n">
-        <v>1483</v>
+        <v>1335</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2509,33 +2521,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster MERC319 Radeon RX 6900XT Black Gaming Carte Graphique avec 16GB GDDR6, AMD RDNA™ 2 (RX-69XTATBD9)  </t>
+          <t xml:space="preserve">PowerColor Red Devil AMD Radeon RX 6900 XT Gaming Grafikkarte mit 16 GB GDDR6 Speicher, angetrieben von AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache, Black  </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Speedster-MERC319-Radeon-Graphique-RX-69XTATBD9/dp/B09BZP8KZG/ref=sr_1_2?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-2</t>
+          <t>https://www.amazon.de/PowerColor-Grafikkarte-Speicher-angetrieben-Raytracing/dp/B08Q2R71CS/ref=sr_1_5?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1905</v>
+        <v>1418</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1905</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1418</v>
+      </c>
+      <c r="G54" t="n">
+        <v>886</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2550,27 +2560,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Toxic AMD Radeon RX 6900 XT Gaming OC 16 Go GDDR6 Extreme Edition HDMI/Triple DP Carte Graphique  </t>
+          <t xml:space="preserve">Powercolor Red Devil RX 6900XT - Carte Graphique à 3 Ventilateurs - 16 Go  </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-RadeonTM-Gaming-Extreme-Triple/dp/B091CRNMDJ/ref=sr_1_20?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-20</t>
+          <t>https://www.amazon.fr/PowerColor-RadeonTM-Graphique-aliment%C3%A9e-Raytracing/dp/B08Q2R71CS/ref=sr_1_10?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-10</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1954</v>
+        <v>1419</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1954</v>
+        <v>1419</v>
       </c>
       <c r="G55" t="n">
-        <v>1262</v>
+        <v>988</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2589,29 +2599,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Aorus GV-R69XTAORUSX WB-16GD Tarjeta grafica amd radeon RX 6900 XT 16gb gddr6 negro  </t>
+          <t xml:space="preserve">SAPPHIRE Toxic AMD Radeon™ RX 6900 XT Gaming OC 16GB GDDR6 Liquid Cooled HDMI / Triple DP  </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Gigabyte-Radeon-XTREME-WATERFORCE-grafica/dp/B096Y4VN4B/ref=sr_1_22?keywords=6900xt&amp;qid=1671224991&amp;sr=8-22</t>
+          <t>https://www.amazon.fr/SAPPHIRE-RadeonTM-Gaming-Liquid-Cooled/dp/B09L3M38RD/ref=sr_1_7?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-7</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2148</v>
-      </c>
-      <c r="E56" t="n">
-        <v>11</v>
+        <v>1483</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F56" t="n">
-        <v>2159</v>
-      </c>
-      <c r="G56" t="n">
-        <v>995</v>
+        <v>1483</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2626,22 +2640,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE VGA Toxic AMD Radeon RX 6900 XT Gaming OC 16GB GDDR6 Limited Edition HDMI/Dual DP/USB-  </t>
+          <t xml:space="preserve">SAPPHIRE 11308-13-20G, TOXIC RADEON RX 6900 XT GAMING OC 16 GB GDDR6 HDMI 3 DP LITE  </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-Toxic-Radeon-Gaming-Limited/dp/B08ZV28L11/ref=sr_1_25?keywords=6900xt&amp;qid=1671224991&amp;sr=8-25</t>
+          <t>https://www.amazon.it/SAPPHIRE-11308-13-20G-TOXIC-RADEON-GAMING/dp/B09L3M38RD/ref=sr_1_17?keywords=6900xt&amp;qid=1671321363&amp;sr=8-17</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2146</v>
-      </c>
-      <c r="E57" t="n">
-        <v>35</v>
+        <v>1483</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consegna GRATUITA </t>
+        </is>
       </c>
       <c r="F57" t="n">
-        <v>2181</v>
+        <v>1483</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2665,24 +2681,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">PC Gaming Atx- REDI PX M1 A580 AM10- RYZEN 7 5800X- B550 ATX- RX 6900 XT 16GB- DDR4 16GB 3200- SSD 256GB NVME 750W Bronze  </t>
+          <t xml:space="preserve">Sapphire 11308-13-20G Tossico AMD Radeon RX 6900 XT Scheda grafica da gioco PCIe 4.0 raffreddata a liquido con 16GB GDDR6  </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Gaming-AM10-RYZEN-5800X-Bronze/dp/B09Q91SLRZ/ref=sr_1_38?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-38</t>
+          <t>https://www.amazon.it/Sapphire-11308-13-20G-Tossico-grafica-raffreddata/dp/B09QH5MGQ8/ref=sr_1_45?keywords=6900xt&amp;qid=1671321363&amp;sr=8-45</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2201</v>
+        <v>1483</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Consegna GRATUITA </t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2201</v>
+        <v>1483</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2691,7 +2707,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2706,24 +2722,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">PC Gaming Atx- REDI PX M2 A560X AM10- RYZEN 5 5600X- X570 ATX- RX 6900 XT 16GB- DDR4 16GB 3200- SSD 512GB NVME 650W Gold  </t>
+          <t xml:space="preserve">ASUS ROG Strix LC AMD Radeon RX 6900 XT Top Edition - Tarjeta gráfica Gaming (AMD RDNA 2,  PCIe 4.0, 16 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Placa fría, radiador de 240 mm, Tubos de 600 mm)  </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Gaming-A560X-AM10-RYZEN-5600X/dp/B09Q93RBDN/ref=sr_1_42?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-42</t>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-Radeon-6900/dp/B095SYYC8F/ref=sr_1_26?keywords=6900xt&amp;qid=1671321360&amp;sr=8-26</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2205</v>
+        <v>1535</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2205</v>
+        <v>1535</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2732,7 +2748,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2747,31 +2763,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster MERC319 Radeon RX 6900XT Black Tarjeta gráfica para Juegos con 16GB GDDR6, AMD RDNA ™ 2 (RX-69XTATBD9)  </t>
+          <t xml:space="preserve">Sapphire Radeon RX 6900 XT Gaming OC 16GB GDDR6 HDMI 3 DP Lite 11308-13-20G  </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Speedster-MERC319-Tarjeta-gr%C3%A1fica-RX-69XTATBD9/dp/B09BZP8KZG/ref=sr_1_1?keywords=6900xt&amp;qid=1671224988&amp;sr=8-1</t>
+          <t>https://www.amazon.de/Sapphire-Radeon-Gaming-GDDR6-11308-13-20G/dp/B09L3M38RD/ref=sr_1_8?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-8</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2283</v>
+        <v>1594</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2283</v>
+        <v>1594</v>
       </c>
       <c r="G60" t="n">
-        <v>2246</v>
+        <v>1192</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2786,33 +2802,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Toxic AMD Radeon RX 6900 XT Gaming OC 16 Go GDDR6 Limited Edition HDMI/Triple DP Carte Graphique 11308-06-20G Noir/Acier Inoxydable  </t>
+          <t xml:space="preserve">XFX RX 6900XT MERC319 Gaming Black Limited Edition - Memoria RAM DDR6 de 16 GB  </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Sapphire-Limited-Graphique-11308-06-20G-Inoxydable/dp/B094WBD1NW/ref=sr_1_33?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-33</t>
+          <t>https://www.amazon.es/XFX-6900XT-MERC319-Gaming-Limited/dp/B097N5N3YB/ref=sr_1_12?keywords=6900xt&amp;qid=1671321360&amp;sr=8-12</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2367</v>
+        <v>1606</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2367</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1606</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1309</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2827,33 +2841,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme Intel i7-13700K 16x 5.4 GHz | AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 32 Go DDR5 RAM | 500 Go 980 NVMe SSD + 2000 Go HDD Windows 10  </t>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6900 XT Master Grafikkarte, 16 GB, GV-R69XTAORUS M-16GD, One Size  </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Memory-PC-Ordinateur-i7-13700K-Windows/dp/B0BMVQRL92/ref=sr_1_39?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-39</t>
+          <t>https://www.amazon.de/Gigabyte-AORUS-Radeon-Master-Grafikkarte/dp/B08WBYGJ83/ref=sr_1_11?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-11</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2389</v>
+        <v>1646</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2389</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1646</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1280</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2868,33 +2880,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE 11308-06-20G Toxic AMD Radeon RX 6900 XT Limited Edition PCIe 4.0 Carte graphique pour jeu vidéo avec GDDR6 16 Go  </t>
+          <t xml:space="preserve">XFX Speedster MERC 319 AMD Radeon™ RX 6900 XT Gaming-Grafikkarte in Schwarz mit 16 GB GDDR6, AMD RDNA™ 2; RX-69XTACBD9  </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-11308-06-20G-Radeon-Limited-graphique/dp/B097LFWDCX/ref=sr_1_35?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-35</t>
+          <t>https://www.amazon.de/RX-6900XT-XFX-Gaming-Schwarz/dp/B08SVZNFWR/ref=sr_1_12?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-12</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2401</v>
+        <v>1745</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2401</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1745</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1009</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2909,24 +2919,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire 11308-06-20G - Scheda grafica da gioco PCIe 4.0 Toxic AMD Radeon RX 6900 XT Limited Edition con 16 GB GDDR6  </t>
+          <t xml:space="preserve">ASUS ROG Strix LC AMD Radeon RX 6900XT Top Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Raffreddamento a Liquido, Radiatore 240mm, Tubi da 600mm, RGB, Nero  </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Sapphire-11308-06-20G-Scheda-grafica-Limited/dp/B097LFWDCX/ref=sr_1_23?keywords=6900xt&amp;qid=1671224991&amp;sr=8-23</t>
+          <t>https://www.amazon.it/radiatore-memoria-raffreddamento-liquido-Rog-Strix-LC-RX6900XT-T16G-Gaming/dp/B095SYYC8F/ref=sr_1_21?keywords=6900xt&amp;qid=1671321363&amp;sr=8-21</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2401</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consegna GRATUITA </t>
-        </is>
+        <v>1827</v>
+      </c>
+      <c r="E64" t="n">
+        <v>14</v>
       </c>
       <c r="F64" t="n">
-        <v>2401</v>
+        <v>1841</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2950,33 +2958,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme AMD Ryzen 7 7700X 8X 4.5 GHz | AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 32 Go DDR5 RAM | 500 Go 980 NVMe SSD + 2000 Go HDD Windows 10  </t>
+          <t xml:space="preserve">Sapphire Toxic Radeon RX 6900 XT Gaming OC 16GB GDDR6 HDMI 3 DP Lite, 11308-13-20G  </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Memory-PC-Ordinateur-Gamme-Windows/dp/B0BKGLTXPK/ref=sr_1_25?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-25</t>
+          <t>https://www.amazon.es/T%C3%93XIC-Radeon-6900-Gaming-GDDR6/dp/B09L3M38RD/ref=sr_1_42?keywords=6900xt&amp;qid=1671321360&amp;sr=8-42</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2549</v>
+        <v>1878</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2549</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1878</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1483</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2991,29 +2997,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sedatech PC Pro Gamer Watercooling • AMD Ryzen 9 5900X 12x 3.7Ghz • Radeon RX6900XT • 32Go RAM • 1To SSD M.2 • 3To HDD • WiFi • Bluetooth • Windows 11 • Unité Centrale  </t>
+          <t xml:space="preserve">Sapphire Toxic AMD Radeon RX 6900 XT Gaming OC 16 Go GDDR6 Extreme Edition HDMI/Triple DP Carte Graphique  </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Sedatech-Watercooling-3-7Ghz-Bluetooth-Centrale/dp/B08WJ6L85W/ref=sr_1_27?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-27</t>
+          <t>https://www.amazon.fr/SAPPHIRE-RadeonTM-Gaming-Extreme-Triple/dp/B091CRNMDJ/ref=sr_1_36?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-36</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2614</v>
+        <v>1960</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2614</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1960</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1262</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3032,33 +3036,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme AMD Ryzen 9 7900X 12x 4.7 GHz | AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 32 Go DDR5 RAM | 500 Go 980 NVMe SSD + 2000 Go HDD Windows 10  </t>
+          <t xml:space="preserve">Gigabyte Aorus GV-R69XTAORUSX WB-16GD Tarjeta grafica amd radeon RX 6900 XT 16gb gddr6 negro  </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Memory-PC-Ordinateur-Gamme-Windows/dp/B0BKGSNSFC/ref=sr_1_30?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-30</t>
+          <t>https://www.amazon.it/Gigabyte-Radeon-XTREME-WATERFORCE-grafica/dp/B096Y4VN4B/ref=sr_1_26?keywords=6900xt&amp;qid=1671321363&amp;sr=8-26</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2739</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11</v>
       </c>
       <c r="F67" t="n">
-        <v>2739</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>2011</v>
+      </c>
+      <c r="G67" t="n">
+        <v>995</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3073,24 +3073,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme AMD Ryzen 9 7900X 12x 4.7 GHz| AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 64 Go DDR5 RAM | 1000 Go 980 NVMe SSD + 4000 Go HDD Windows 10  </t>
+          <t xml:space="preserve">SAPPHIRE VGA Toxic AMD Radeon RX 6900 XT Gaming OC 16GB GDDR6 Limited Edition HDMI/Dual DP/USB-  </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Memory-PC-Ordinateur-Gamme-Windows/dp/B0BKGR59C5/ref=sr_1_29?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-29</t>
+          <t>https://www.amazon.it/SAPPHIRE-Toxic-Radeon-Gaming-Limited/dp/B08ZV28L11/ref=sr_1_28?keywords=6900xt&amp;qid=1671321363&amp;sr=8-28</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3029</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>2146</v>
+      </c>
+      <c r="E68" t="n">
+        <v>35</v>
       </c>
       <c r="F68" t="n">
-        <v>3029</v>
+        <v>2181</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3099,7 +3097,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3114,16 +3112,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Gaming Radeon RX 6900 XT Gaming Z Trio 16G 16 Go GDDR6 256 Bits HDMI/DP Nvlink Torx Fan 4 AMD Carte Graphique AMD (RX 6900 XT Gaming Z Trio 16G)  </t>
+          <t xml:space="preserve">PC Gaming Atx- REDI PX M2 A560X AM10- RYZEN 5 5600X- X570 ATX- RX 6900 XT 16GB- DDR4 16GB 3200- SSD 512GB NVME 650W Gold  </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-Radeon-RX-6900-16G/dp/B096M7NPNP/ref=sr_1_11?keywords=6900+xt&amp;qid=1671224989&amp;sr=8-11</t>
+          <t>https://www.amazon.fr/Gaming-A560X-AM10-RYZEN-5600X/dp/B09Q93RBDN/ref=sr_1_26?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-26</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4167</v>
+        <v>2205</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3131,7 +3129,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4167</v>
+        <v>2205</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3155,34 +3153,483 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t xml:space="preserve">Sapphire Toxic AMD Radeon RX 6900 XT Gaming OC 16 Go GDDR6 Limited Edition HDMI/Triple DP Carte Graphique 11308-06-20G Noir/Acier Inoxydable  </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Sapphire-Limited-Graphique-11308-06-20G-Inoxydable/dp/B094WBD1NW/ref=sr_1_35?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-35</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2367</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2367</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme Intel i7-13700K 16x 5.4 GHz | AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 32 Go DDR5 RAM | 500 Go 980 NVMe SSD + 2000 Go HDD Windows 10  </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Memory-PC-Ordinateur-i7-13700K-Windows/dp/B0BMVQRL92/ref=sr_1_42?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-42</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2389</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>2389</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAPPHIRE 11308-06-20G Toxic AMD Radeon RX 6900 XT Limited Edition PCIe 4.0 Carte graphique pour jeu vidéo avec GDDR6 16 Go  </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/SAPPHIRE-11308-06-20G-Radeon-Limited-graphique/dp/B097LFWDCX/ref=sr_1_48?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-48</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2401</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2401</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapphire 11308-06-20G - Scheda grafica da gioco PCIe 4.0 Toxic AMD Radeon RX 6900 XT Limited Edition con 16 GB GDDR6  </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/Sapphire-11308-06-20G-Scheda-grafica-Limited/dp/B097LFWDCX/ref=sr_1_22?keywords=6900xt&amp;qid=1671321363&amp;sr=8-22</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2401</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consegna GRATUITA </t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2401</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6900 XT Xtreme Waterforce WB Grafikkarte, 16 GB  </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/Gigabyte-Radeon-Xtreme-Waterforce-Grafikkarte/dp/B096Y4VN4B/ref=sr_1_4?keywords=6900+xt&amp;qid=1671321363&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2412</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung bis </t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2412</v>
+      </c>
+      <c r="G74" t="n">
+        <v>995</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>AmazonDE</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedatech PC Pro Gamer Watercooling • AMD Ryzen 9 5900X 12x 3.7Ghz • Radeon RX6900XT • 32Go RAM • 1To SSD M.2 • 3To HDD • WiFi • Bluetooth • sans OS • Unité Centrale  </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Sedatech-Watercooling-3-7Ghz-Bluetooth-Centrale/dp/B08WJ5FRQG/ref=sr_1_22?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-22</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2474</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2474</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme AMD Ryzen 7 7700X 8X 4.5 GHz | AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 32 Go DDR5 RAM | 500 Go 980 NVMe SSD + 2000 Go HDD Windows 10  </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Memory-PC-Ordinateur-Gamme-Windows/dp/B0BKGLTXPK/ref=sr_1_46?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-46</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2549</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2549</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme AMD Ryzen 9 7900X 12x 4.7 GHz | AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 32 Go DDR5 RAM | 500 Go 980 NVMe SSD + 2000 Go HDD Windows 10  </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Memory-PC-Ordinateur-Gamme-Windows/dp/B0BKGSNSFC/ref=sr_1_41?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-41</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2739</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2739</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Memory PC Ordinateur Haut de Gamme AMD Ryzen 9 7900X 12x 4.7 GHz| AMD RX 6900 XT 16 Go 4K | be Quiet! Dark Rock 4 | 64 Go DDR5 RAM | 1000 Go 980 NVMe SSD + 4000 Go HDD Windows 10  </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Memory-PC-Ordinateur-Gamme-Windows/dp/B0BKGR59C5/ref=sr_1_40?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-40</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3029</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>3029</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSI Gaming Radeon RX 6900 XT Gaming Z Trio 16G 16 Go GDDR6 256 Bits HDMI/DP Nvlink Torx Fan 4 AMD Carte Graphique AMD (RX 6900 XT Gaming Z Trio 16G)  </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/MSI-Radeon-RX-6900-16G/dp/B096M7NPNP/ref=sr_1_32?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-32</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4167</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>4167</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t xml:space="preserve">MSI Gaming Radeon RX 6900 XT Gaming Z Trio 16G 16GB GDDR6 256-Bit HDMI/DP Nvlink Torx Fan 4 AMD Scheda grafica (RX 6900 XT Gaming Z Trio 16G)  </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://www.amazon.it/MSI-Radeon-RX-6900-16G/dp/B096M7NPNP/ref=sr_1_38?keywords=6900xt&amp;qid=1671224991&amp;sr=8-38</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/MSI-Radeon-RX-6900-16G/dp/B096M7NPNP/ref=sr_1_37?keywords=6900xt&amp;qid=1671321363&amp;sr=8-37</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>4167</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E80" t="n">
         <v>10</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F80" t="n">
         <v>4177</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>AmazonIT</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedatech PC Pro Gamer Watercooling • Intel i9-10980XE 18x 3.0Ghz • Radeon RX6900XT • 128Go RAM • 2To SSD M.2 • 3To HDD • Windows 11 Pro • Unité Centrale  </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Sedatech-Watercooling-i9-10980XE-3-0Ghz-Centrale/dp/B09DPXN82N/ref=sr_1_43?keywords=6900+xt&amp;qid=1671321361&amp;sr=8-43</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4469</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>4469</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>No</t>
         </is>
